--- a/bots/crawl_ch/output/bread_coop_2023-02-25.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-25.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4867,28 +4867,28 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6763705</t>
+          <t>6115868</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Betty Bossi Flammkuchenteig 2x290g</t>
+          <t>Naturaplan Bio Hamburger-Buns</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-flammkuchenteig-2x290g/p/6763705</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-hamburger-buns/p/6115868</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E63" t="n">
         <v>4.5</v>
@@ -4900,12 +4900,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.85/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4925,12 +4925,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Betty Bossi Flammkuchenteig 2x290g 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Hamburger-Buns 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4940,28 +4940,28 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6115868</t>
+          <t>6763705</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hamburger-Buns</t>
+          <t>Betty Bossi Flammkuchenteig 2x290g</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-hamburger-buns/p/6115868</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-flammkuchenteig-2x290g/p/6763705</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
         <v>4.5</v>
@@ -4973,12 +4973,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>0.85/100g</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hamburger-Buns 3.40 Schweizer Franken</t>
+          <t>Betty Bossi Flammkuchenteig 2x290g 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8295,31 +8295,31 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4522047</t>
+          <t>6636392</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
+          <t>Prix Garantie Zwieback</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/prix-garantie-zwieback/p/6636392</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -8328,12 +8328,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8353,60 +8353,56 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Zwieback 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3041212</t>
+          <t>4522047</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-classica-original-rund-ausgewallt-24cm/p/3041212</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E112" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8416,7 +8412,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8426,12 +8422,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8441,45 +8437,45 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6636392</t>
+          <t>3041212</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Prix Garantie Zwieback</t>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/prix-garantie-zwieback/p/6636392</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-classica-original-rund-ausgewallt-24cm/p/3041212</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E113" t="n">
         <v>4.5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8489,7 +8485,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8499,18 +8495,22 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Prix Garantie Zwieback 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr"/>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9569,45 +9569,45 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>3726467</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>Pasquier Milchbrötchen 10St</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-10st/p/3726467</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E129" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9632,51 +9632,51 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St 30% ab 2 Aktion 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6064661</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6064661</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9696,60 +9696,56 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Apricot 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3726467</t>
+          <t>6064661</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St</t>
+          <t>Naturaplan Bio Huusbrot hell</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-10st/p/3726467</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6064661</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E131" t="n">
         <v>4.5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9759,7 +9755,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9769,18 +9765,22 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St - Online kein Bestand 30% ab 2 Aktion 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr"/>
+          <t>Naturaplan Bio Huusbrot hell 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11338,28 +11338,28 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6820411</t>
+          <t>3685830</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse</t>
+          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-panino-rustico-ip-suisse/p/6820411</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-fairtrade-4-kornwaffeln-mit-sesam/p/3685830</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E154" t="n">
         <v>4.5</v>
@@ -11371,12 +11371,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.42/100g</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11396,43 +11396,43 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam 1.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3685830</t>
+          <t>6787088</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam</t>
+          <t>Pastetli 6x30g</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-fairtrade-4-kornwaffeln-mit-sesam/p/3685830</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E155" t="n">
         <v>4.5</v>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>1.42/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11469,43 +11469,43 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam 1.85 Schweizer Franken</t>
+          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6787088</t>
+          <t>6820411</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g</t>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-panino-rustico-ip-suisse/p/6820411</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
         <v>4.5</v>
@@ -11517,12 +11517,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11542,22 +11542,22 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12267,45 +12267,45 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6383814</t>
+          <t>6628848</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück</t>
+          <t>Betty Bossi Tiroler Cake</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-tiroler-cake/p/6628848</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E167" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12325,56 +12325,56 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Bauli Croissant Cream 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Betty Bossi Tiroler Cake 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>6628848</t>
+          <t>6383814</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Betty Bossi Tiroler Cake</t>
+          <t>Bauli Croissant Cream 6 Stück</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-tiroler-cake/p/6628848</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-cream-6-stueck/p/6383814</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E168" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12394,18 +12394,18 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Betty Bossi Tiroler Cake 4.95 Schweizer Franken</t>
+          <t>Bauli Croissant Cream 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12478,45 +12478,45 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3664904</t>
+          <t>3726487</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini</t>
+          <t>Pasquier Pitch Schokolade 8 Stück</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12536,60 +12536,56 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Schokolade 8 Stück 30% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3726487</t>
+          <t>6589691</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück</t>
+          <t>Prix Garantie Roggenbrot</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E171" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12599,7 +12595,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12609,42 +12605,46 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück 30% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr"/>
+          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6589691</t>
+          <t>6734420</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot</t>
+          <t>Reiswaffeln Vollmilch-Kokos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -12653,12 +12653,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12678,60 +12678,60 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
+          <t>Reiswaffeln Vollmilch-Kokos 1.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6734420</t>
+          <t>3664904</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos</t>
+          <t>Appenzeller Bärli-Biber Mini</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12751,47 +12751,47 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos 1.70 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6338745</t>
+          <t>6825720</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane</t>
+          <t>Prix Garantie Roggenvollkornbrot</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
         </is>
       </c>
       <c r="D174" t="n">
+        <v>5</v>
+      </c>
+      <c r="E174" t="n">
         <v>4</v>
       </c>
-      <c r="E174" t="n">
-        <v>5</v>
-      </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -12799,12 +12799,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12814,7 +12814,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12824,56 +12824,56 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
+          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>3023036</t>
+          <t>6338745</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12893,56 +12893,56 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4952835</t>
+          <t>3023036</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei</t>
+          <t>Old El Paso Taco-Schalen 12 Stück</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12962,60 +12962,56 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6825720</t>
+          <t>4952835</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot</t>
+          <t>Roland Zwieback glutenfrei</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
         </is>
       </c>
       <c r="D177" t="n">
+        <v>46</v>
+      </c>
+      <c r="E177" t="n">
         <v>5</v>
       </c>
-      <c r="E177" t="n">
-        <v>4</v>
-      </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13025,7 +13021,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13035,39 +13031,43 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr"/>
+          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>3041124</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Naturaplan Bio Sonnenblumenbrot</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E178" t="n">
         <v>4.5</v>
@@ -13079,12 +13079,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>0.64/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13104,43 +13104,43 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Sonnenblumenbrot 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6628846</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Zitronencake</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E179" t="n">
         <v>4.5</v>
@@ -13152,12 +13152,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13177,39 +13177,43 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Zitronencake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3041124</t>
+          <t>6628846</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot</t>
+          <t>Zitronencake</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E180" t="n">
         <v>4.5</v>
@@ -13221,12 +13225,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.64/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13236,7 +13240,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13246,22 +13250,18 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Zitronencake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13330,45 +13330,45 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13388,60 +13388,56 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13451,7 +13447,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13461,56 +13457,56 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13520,7 +13516,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13530,56 +13526,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13589,7 +13585,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13599,18 +13595,18 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13679,31 +13675,31 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -13712,12 +13708,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13727,7 +13723,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13737,18 +13733,22 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14032,31 +14032,31 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E192" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -14065,12 +14065,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14090,42 +14090,42 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E193" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -14134,12 +14134,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14159,18 +14159,18 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14746,45 +14746,45 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6345143</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14804,18 +14804,22 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N202" t="inlineStr"/>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14888,45 +14892,45 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>6345143</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Dar-Vida Simply Sesame</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14936,7 +14940,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14946,22 +14950,18 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15598,45 +15598,45 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E214" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15671,45 +15671,45 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15729,12 +15729,12 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15813,45 +15813,45 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15871,56 +15871,56 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.60 Schweizer Franken</t>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>6734419</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Prix Garantie MiniReiswaffeln</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15940,39 +15940,43 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr"/>
+          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6734419</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -15984,12 +15988,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15999,7 +16003,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16009,43 +16013,39 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pandorino 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16057,12 +16057,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16082,18 +16082,18 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
+          <t>Betty Bossi Spitzbube 2x  80g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16446,45 +16446,45 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>4886676</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Dar-Vida Cracker Leinsamen</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E226" t="n">
         <v>4.5</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16509,51 +16509,51 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Leinsamen 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>4886676</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E227" t="n">
         <v>4.5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16578,13 +16578,13 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen 3.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17570,45 +17570,45 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E242" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17628,46 +17628,44 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>12</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -17676,12 +17674,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17691,7 +17689,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17701,12 +17699,12 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17716,43 +17714,45 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>15</v>
+      </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17772,60 +17772,60 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E245" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17835,7 +17835,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17845,60 +17845,60 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'gluten_free']</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E246" t="n">
         <v>3.5</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17908,7 +17908,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17918,60 +17918,60 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E247" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17991,60 +17991,60 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18064,22 +18064,22 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18148,7 +18148,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18217,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18286,7 +18286,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18355,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18497,7 +18497,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18927,7 +18927,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19284,29 +19284,31 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>3</v>
+      </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -19315,12 +19317,12 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19330,7 +19332,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19340,18 +19342,22 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19420,45 +19426,43 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>33</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19468,7 +19472,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19478,56 +19482,56 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E269" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19537,7 +19541,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19547,60 +19551,56 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E270" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19610,7 +19610,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19620,60 +19620,56 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19683,7 +19679,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19693,56 +19689,60 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N271" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19767,46 +19767,46 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E273" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -19831,42 +19831,42 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -19875,12 +19875,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19900,18 +19900,18 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19980,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20049,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20116,7 +20116,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20183,7 +20183,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20396,7 +20396,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20465,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20534,45 +20534,45 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E284" t="n">
         <v>4.5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20582,7 +20582,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20592,60 +20592,56 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E285" t="n">
         <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20655,7 +20651,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20665,18 +20661,22 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20814,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21451,45 +21451,45 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E297" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21499,7 +21499,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21509,56 +21509,60 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N297" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21568,7 +21572,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21583,51 +21587,51 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21637,7 +21641,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21647,22 +21651,18 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21735,35 +21735,35 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E301" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -21773,7 +21773,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21783,7 +21783,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21793,46 +21793,46 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -21842,7 +21842,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21862,18 +21862,18 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22291,45 +22291,45 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>6776778</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Werners Markt Magenbrot</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E309" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Werner's</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22349,56 +22349,56 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22418,56 +22418,56 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E311" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22487,60 +22487,56 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6776778</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Werner's</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22550,7 +22546,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22560,18 +22556,22 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22780,7 +22780,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22922,45 +22922,43 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22970,7 +22968,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22980,22 +22978,18 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23064,45 +23058,45 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23112,7 +23106,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23122,54 +23116,60 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>7</v>
+      </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23189,18 +23189,18 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23409,7 +23409,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23482,7 +23482,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23551,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23689,7 +23689,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24245,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24598,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -24945,45 +24945,45 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E347" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24993,7 +24993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25003,56 +25003,60 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E348" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25062,7 +25066,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25072,22 +25076,18 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25574,45 +25574,45 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E356" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25622,7 +25622,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25632,56 +25632,56 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E357" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25701,56 +25701,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E358" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25770,18 +25770,18 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25850,7 +25850,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25919,7 +25919,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26138,7 +26138,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26209,7 +26209,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26282,7 +26282,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26629,7 +26629,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26696,7 +26696,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26765,7 +26765,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26911,7 +26911,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -26980,7 +26980,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27118,7 +27118,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27187,7 +27187,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27256,7 +27256,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27325,7 +27325,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27392,7 +27392,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27461,7 +27461,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27528,7 +27528,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27595,7 +27595,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27733,7 +27733,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27804,7 +27804,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27871,7 +27871,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -27944,7 +27944,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -28011,7 +28011,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
@@ -28078,7 +28078,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-25 12:55:38</t>
+          <t>2023-02-25 20:49:16</t>
         </is>
       </c>
     </row>
